--- a/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,81 +452,209 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45439</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45453</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45481</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45488</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45509</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45544</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45614</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45628</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45635</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -541,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,57 +691,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45413</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45444</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45474</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45505</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45536</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45627</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>16</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -685,7 +686,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -799,6 +800,523 @@
       </c>
       <c r="B15" t="n">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.868350049772292</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.81995647660504</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.473894049938778</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.23496616969146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-6.922534580808817</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.61782062776201</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.253589088158839</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.21571330609387</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.967788177755618</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.60684181486866</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.527661507522686</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.62174713437897</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.150683649404727</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.53606957152183</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.893404444517508</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.87533569331439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.91887224943324</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.75168830602704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.038762047104713</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.44517620457103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5.292372574998972</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.33585659282154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.789949332292152</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.88403151592122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-5.203524533410732</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.37920719294642</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-5.094013217780366</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.07227844509258</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-4.516939340833722</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.1537058567212</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-4.554481011131836</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13.31016863252553</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.2969641637363782</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.40059522990411</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.1732228681901788</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17.50644227940835</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2083616301802291</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18.40093102456071</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2096648565571771</v>
+      </c>
+      <c r="D21" t="n">
+        <v>18.11723861962371</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1059668511391858</v>
+      </c>
+      <c r="D22" t="n">
+        <v>18.67351473605877</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.202091454466805</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18.21914238015036</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9381433697250025</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19.56552251858779</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.832065530025953</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.19399182552035</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.500195316556124</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.69091838556769</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.700989854420117</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21.0177566696163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.449372424108407</v>
+      </c>
+      <c r="D28" t="n">
+        <v>19.81038376188928</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.923236893740314</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20.35834621862873</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.422470700949631</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.77366654853027</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.158284442832333</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.63092036930002</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.735247154892078</v>
+      </c>
+      <c r="D32" t="n">
+        <v>21.08852343426644</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.692891404828732</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20.68746201161107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.413447674892486</v>
+      </c>
+      <c r="D34" t="n">
+        <v>21.63964096558609</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.043286155870315</v>
+      </c>
+      <c r="D35" t="n">
+        <v>21.16417918359964</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
@@ -813,7 +813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,16 +832,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -850,12 +840,6 @@
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>-6.868350049772292</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.81995647660504</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -864,12 +848,6 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>-7.473894049938778</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.23496616969146</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -878,12 +856,6 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>-6.922534580808817</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.61782062776201</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -892,12 +864,6 @@
       <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.253589088158839</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.21571330609387</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -906,12 +872,6 @@
       <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
-        <v>-5.967788177755618</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.60684181486866</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -920,12 +880,6 @@
       <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>-5.527661507522686</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.62174713437897</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -934,12 +888,6 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>-5.150683649404727</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.53606957152183</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -948,12 +896,6 @@
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>-5.893404444517508</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.87533569331439</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -962,12 +904,6 @@
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.91887224943324</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.75168830602704</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -976,12 +912,6 @@
       <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
-        <v>-5.038762047104713</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.44517620457103</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -990,12 +920,6 @@
       <c r="B12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>-5.292372574998972</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12.33585659282154</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1004,12 +928,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>-4.789949332292152</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.88403151592122</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1018,12 +936,6 @@
       <c r="B14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>-5.203524533410732</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.37920719294642</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1032,12 +944,6 @@
       <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
-        <v>-5.094013217780366</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13.07227844509258</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1046,12 +952,6 @@
       <c r="B16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>-4.516939340833722</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.1537058567212</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1060,12 +960,6 @@
       <c r="B17" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>-4.554481011131836</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.31016863252553</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1074,12 +968,6 @@
       <c r="B18" t="n">
         <v>9</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.2969641637363782</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.40059522990411</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1088,12 +976,6 @@
       <c r="B19" t="n">
         <v>9</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.1732228681901788</v>
-      </c>
-      <c r="D19" t="n">
-        <v>17.50644227940835</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1102,12 +984,6 @@
       <c r="B20" t="n">
         <v>9</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.2083616301802291</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18.40093102456071</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1116,12 +992,6 @@
       <c r="B21" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.2096648565571771</v>
-      </c>
-      <c r="D21" t="n">
-        <v>18.11723861962371</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1130,12 +1000,6 @@
       <c r="B22" t="n">
         <v>9</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.1059668511391858</v>
-      </c>
-      <c r="D22" t="n">
-        <v>18.67351473605877</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1144,12 +1008,6 @@
       <c r="B23" t="n">
         <v>10</v>
       </c>
-      <c r="C23" t="n">
-        <v>1.202091454466805</v>
-      </c>
-      <c r="D23" t="n">
-        <v>18.21914238015036</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1158,12 +1016,6 @@
       <c r="B24" t="n">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.9381433697250025</v>
-      </c>
-      <c r="D24" t="n">
-        <v>19.56552251858779</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1172,12 +1024,6 @@
       <c r="B25" t="n">
         <v>11</v>
       </c>
-      <c r="C25" t="n">
-        <v>2.832065530025953</v>
-      </c>
-      <c r="D25" t="n">
-        <v>20.19399182552035</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1186,12 +1032,6 @@
       <c r="B26" t="n">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
-        <v>2.500195316556124</v>
-      </c>
-      <c r="D26" t="n">
-        <v>20.69091838556769</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1200,12 +1040,6 @@
       <c r="B27" t="n">
         <v>12</v>
       </c>
-      <c r="C27" t="n">
-        <v>2.700989854420117</v>
-      </c>
-      <c r="D27" t="n">
-        <v>21.0177566696163</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1214,12 +1048,6 @@
       <c r="B28" t="n">
         <v>12</v>
       </c>
-      <c r="C28" t="n">
-        <v>3.449372424108407</v>
-      </c>
-      <c r="D28" t="n">
-        <v>19.81038376188928</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1228,12 +1056,6 @@
       <c r="B29" t="n">
         <v>12</v>
       </c>
-      <c r="C29" t="n">
-        <v>2.923236893740314</v>
-      </c>
-      <c r="D29" t="n">
-        <v>20.35834621862873</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1242,12 +1064,6 @@
       <c r="B30" t="n">
         <v>12</v>
       </c>
-      <c r="C30" t="n">
-        <v>3.422470700949631</v>
-      </c>
-      <c r="D30" t="n">
-        <v>20.77366654853027</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1256,12 +1072,6 @@
       <c r="B31" t="n">
         <v>12</v>
       </c>
-      <c r="C31" t="n">
-        <v>3.158284442832333</v>
-      </c>
-      <c r="D31" t="n">
-        <v>20.63092036930002</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1270,12 +1080,6 @@
       <c r="B32" t="n">
         <v>12</v>
       </c>
-      <c r="C32" t="n">
-        <v>3.735247154892078</v>
-      </c>
-      <c r="D32" t="n">
-        <v>21.08852343426644</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1284,12 +1088,6 @@
       <c r="B33" t="n">
         <v>12</v>
       </c>
-      <c r="C33" t="n">
-        <v>3.692891404828732</v>
-      </c>
-      <c r="D33" t="n">
-        <v>20.68746201161107</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1298,12 +1096,6 @@
       <c r="B34" t="n">
         <v>12</v>
       </c>
-      <c r="C34" t="n">
-        <v>3.413447674892486</v>
-      </c>
-      <c r="D34" t="n">
-        <v>21.63964096558609</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1311,12 +1103,6 @@
       </c>
       <c r="B35" t="n">
         <v>13</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.043286155870315</v>
-      </c>
-      <c r="D35" t="n">
-        <v>21.16417918359964</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
+++ b/po_analysis_by_asin/B0B3SJ7L7Q_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,6 +659,30 @@
         <v>10</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -670,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,6 +826,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -813,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +870,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -846,7 +878,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -854,7 +886,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -862,7 +894,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +918,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -894,7 +926,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +934,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -966,7 +998,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -974,7 +1006,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +1014,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -990,7 +1022,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -998,7 +1030,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1006,7 +1038,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1046,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1022,7 +1054,7 @@
         <v>45620.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1030,7 +1062,7 @@
         <v>45634.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1038,71 +1070,95 @@
         <v>45641.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45697.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
